--- a/biology/Histoire de la zoologie et de la botanique/Giulio_Cuccodoro/Giulio_Cuccodoro.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giulio_Cuccodoro/Giulio_Cuccodoro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giulio Cuccodoro, né en 1963, est un coléoptériste suisse spécialiste des Staphylinidae. Il est diplômé de l'Université de Genève et travaille depuis les années 1990 au département d’entomologie du Muséum d'histoire naturelle de Genève.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giulio Cuccodoro est dédicataire du genre Cuccodorodes Yin, 2018, ainsi que des espèces suivantes :
 Agathidium cuccodoroi Angelini, 2002
@@ -560,27 +574,29 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Giulio Cuccodoro a décrit ou co-décrit les genres suivants :
-Armariolus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Armariolus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Borneodeuterus Kurbatov &amp; Cuccodoro, 2015
-Cataphractinus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Cataphractinus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Cretobrachygluta Yin, Kurbatov, Cuccodoro &amp; Cai, 2019
 Euparops Kurbatov &amp; Cuccodoro, 2009
 Exoterus Cuccodoro &amp; Kurbatov, 2006
-Klarissa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Multesimus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Nippiliphus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Klarissa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Nippiliphus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Ainsi que les espèces suivantes :
 Achilia adorabilis Sabella, Cuccodoro &amp; Kurbatov, 2019
 Achilia baburra Sabella, Cuccodoro &amp; Kurbatov, 2019
 Achilia covidia Kurbatov, Cuccodoro &amp; Sabella, 2021
 Achilia cunniceps Sabella, Cuccodoro &amp; Kurbatov, 2019
-Achilia elguetai Sabella, Cuccodoro &amp; Kurbatov, 2020[2]
+Achilia elguetai Sabella, Cuccodoro &amp; Kurbatov, 2020
 Achilia fiura Kurbatov, Cuccodoro &amp; Sabella, 2018
-Achilia franzi Sabella, Cuccodoro &amp; Kurbatov, 2020[2]
-Achilia jeanneli Sabella, Cuccodoro &amp; Kurbatov, 2020[2]
+Achilia franzi Sabella, Cuccodoro &amp; Kurbatov, 2020
+Achilia jeanneli Sabella, Cuccodoro &amp; Kurbatov, 2020
 Achilia nipponobythoides Sabella, Cuccodoro &amp; Kurbatov, 2019
 Achilia pandemica Kurbatov, Cuccodoro &amp; Sabella, 2021
 Achilia pugila Sabella, Cuccodoro &amp; Kurbatov, 2019
@@ -591,15 +607,15 @@
 Achilia trulla Sabella, Cuccodoro &amp; Kurbatov, 2019
 Achilia zaurda Sabella, Cuccodoro &amp; Kurbatov, 2019
 Archiclaviger gaofani Yin, Hlaváč &amp; Cuccodoro, 2020
-Armariolus aeruscator Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Armariolus bombax Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Armariolus brachiatus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Armariolus glutto Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Armariolus aeruscator Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus bombax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus brachiatus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus glutto Kurbatov, Cuccodoro &amp; Löbl, 2007
+Armariolus praepilatus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Borneodeuterus sannio Kurbatov &amp; Cuccodoro, 2015
-Cataphractinus arenarius Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Cataphractinus clibanarius Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Cataphractinus crupellarius Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Cataphractinus arenarius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Cataphractinus clibanarius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Cataphractinus crupellarius Kurbatov, Cuccodoro &amp; Löbl, 2007
 Colilodion schulzi Yin &amp; Cuccodoro, 2016
 Cretobrachygluta laurasiensis Yin, Kurbatov, Cuccodoro &amp; Cai, 2019
 Deleaster gibbosus Cuccodoro &amp; Makranczy, 2013
@@ -609,166 +625,166 @@
 Euparops dijeridu Kurbatov &amp; Cuccodoro, 2009
 Euparops forix Kurbatov &amp; Cuccodoro, 2009
 Exoterus lannaeus Cuccodoro &amp; Kurbatov, 2006
-Klarissa pantagatha Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Maya bracata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Maya churgellae Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Maya foveolata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Maya horricomis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Klarissa pantagatha Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya bracata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya churgellae Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya foveolata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Maya horricomis Kurbatov, Cuccodoro &amp; Löbl, 2007
 Megarthrus aino Cuccodoro, 1996
 Megarthrus alesi Cuccodoro, 2003
-Megarthrus alienus Cuccodoro, 1998[3]
-Megarthrus anggiensis Cuccodoro, 1998[3]
+Megarthrus alienus Cuccodoro, 1998
+Megarthrus anggiensis Cuccodoro, 1998
 Megarthrus ashei Cuccodoro &amp; Löbl, 1996
-Megarthrus auricola Cuccodoro, 1995[4]
+Megarthrus auricola Cuccodoro, 1995
 Megarthrus bajie Liu &amp; Cuccodoro, 2021
 Megarthrus balensis Cuccodoro, 1999
-Megarthrus baliemensis Cuccodoro, 1998[3]
-Megarthrus bantu Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus baliemensis Cuccodoro, 1998
+Megarthrus bantu Cuccodoro &amp; Löbl, 1995
 Megarthrus bierigi Cuccodoro, 2011
 Megarthrus borealis Cuccodoro &amp; Löbl, 1996
 Megarthrus budai Liu &amp; Cuccodoro, 2020
 Megarthrus chiapas Cuccodoro, 2020
 Megarthrus chujiao Liu &amp; Cuccodoro, 2020
-Megarthrus clarkei Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus con Cuccodoro, 2011[6]
+Megarthrus clarkei Cuccodoro &amp; Löbl, 1995
+Megarthrus con Cuccodoro, 2011
 Megarthrus conspirator Cuccodoro, 1996
 Megarthrus constrictus Cuccodoro, 1996
 Megarthrus coreanus Kim &amp; Cuccodoro, 2011
 Megarthrus danieli Cuccodoro, 1999
-Megarthrus dominicae Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus dominicae Cuccodoro &amp; Löbl, 1995
 Megarthrus fakir Cuccodoro, 2003
-Megarthrus falasha Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus festivus Cuccodoro, 2011[6]
-Megarthrus fijianus Cuccodoro, 1998[3]
+Megarthrus falasha Cuccodoro &amp; Löbl, 1995
+Megarthrus festivus Cuccodoro, 2011
+Megarthrus fijianus Cuccodoro, 1998
 Megarthrus geginati Cuccodoro, 2010
-Megarthrus globulus Cuccodoro, 2011[6]
-Megarthrus gressitti Cuccodoro, 1998[3]
+Megarthrus globulus Cuccodoro, 2011
+Megarthrus gressitti Cuccodoro, 1998
 Megarthrus harennaensis Cuccodoro, 1999
 Megarthrus heise Zhang, Cuccodoro, Chen &amp; Liu, 2021
-Megarthrus horticola Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus hutu Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus horticola Cuccodoro &amp; Löbl, 1995
+Megarthrus hutu Cuccodoro &amp; Löbl, 1995
 Megarthrus incubifer Cuccodoro, 1996
 Megarthrus ivani Cuccodoro, 2003
 Megarthrus kurbatovi Cuccodoro, 2018
-Megarthrus kuscheli Cuccodoro, 1998[3]
+Megarthrus kuscheli Cuccodoro, 1998
 Megarthrus lanka Cuccodoro &amp; Liu, 2016
-Megarthrus lisae Cuccodoro, 2011[6]
+Megarthrus lisae Cuccodoro, 2011
 Megarthrus loebli Cuccodoro, 2018
 Megarthrus machu Cuccodoro, 2011
-Megarthrus magnicaudatus Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus magnificus Cuccodoro, 2011[6]
-Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus major Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus maniwaata Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus merabet Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus metanas Cuccodoro, 2011[6]
-Megarthrus mirabilis Cuccodoro, 2011[6]
-Megarthrus mukankundiyeorum Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus mwami Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus nanus Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus magnicaudatus Cuccodoro &amp; Löbl, 1995
+Megarthrus magnificus Cuccodoro, 2011
+Megarthrus mahnerti Cuccodoro &amp; Löbl, 1995
+Megarthrus major Cuccodoro &amp; Löbl, 1995
+Megarthrus maniwaata Cuccodoro &amp; Löbl, 1995
+Megarthrus merabet Cuccodoro &amp; Löbl, 1995
+Megarthrus metanas Cuccodoro, 2011
+Megarthrus mirabilis Cuccodoro, 2011
+Megarthrus mukankundiyeorum Cuccodoro &amp; Löbl, 1995
+Megarthrus mwami Cuccodoro &amp; Löbl, 1995
+Megarthrus nanus Cuccodoro &amp; Löbl, 1995
 Megarthrus narendrani Cuccodoro &amp; Liu, 2016
-Megarthrus negus Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus negus Cuccodoro &amp; Löbl, 1995
 Megarthrus newtoni Cuccodoro &amp; Löbl, 1996
 Megarthrus nilgiriensis Cuccodoro &amp; Liu, 2016
-Megarthrus niloticus Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus niloticus Cuccodoro &amp; Löbl, 1995
 Megarthrus occidentalis Cuccodoro &amp; Löbl, 1996
-Megarthrus octopus Cuccodoro, 2011[6]
+Megarthrus octopus Cuccodoro, 2011
 Megarthrus oromo Cuccodoro, 1999
 Megarthrus panda Liu &amp; Cuccodoro, 2021
-Megarthrus panga Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus panga Cuccodoro &amp; Löbl, 1995
 Megarthrus pecki Cuccodoro &amp; Löbl, 1996
-Megarthrus peckorum Cuccodoro, 1998[3]
-Megarthrus phoenix Cuccodoro, 2011[6]
-Megarthrus ping Cuccodoro, 2011[6]
-Megarthrus primus Cuccodoro, 1995[4]
-Megarthrus ras Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus riedeli Cuccodoro, 1998[3]
-Megarthrus rougemonti Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus peckorum Cuccodoro, 1998
+Megarthrus phoenix Cuccodoro, 2011
+Megarthrus ping Cuccodoro, 2011
+Megarthrus primus Cuccodoro, 1995
+Megarthrus ras Cuccodoro &amp; Löbl, 1995
+Megarthrus riedeli Cuccodoro, 1998
+Megarthrus rougemonti Cuccodoro &amp; Löbl, 1995
 Megarthrus saddu Cuccodoro, 2003
 Megarthrus sawadai Cuccodoro, 1996
-Megarthrus scotti Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus selenitus Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus scotti Cuccodoro &amp; Löbl, 1995
+Megarthrus selenitus Cuccodoro &amp; Löbl, 1995
 Megarthrus smetanai Cuccodoro &amp; Löbl, 1996
-Megarthrus spinosus Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus splendidus Cuccodoro, 2011[6]
-Megarthrus stylifer Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus tac Cuccodoro, 2011[6]
-Megarthrus taiwanus Cuccodoro, 2011[6]
-Megarthrus tic Cuccodoro, 2011[6]
-Megarthrus twa Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus spinosus Cuccodoro &amp; Löbl, 1995
+Megarthrus splendidus Cuccodoro, 2011
+Megarthrus stylifer Cuccodoro &amp; Löbl, 1995
+Megarthrus tac Cuccodoro, 2011
+Megarthrus taiwanus Cuccodoro, 2011
+Megarthrus tic Cuccodoro, 2011
+Megarthrus twa Cuccodoro &amp; Löbl, 1995
 Megarthrus uhligi Cuccodoro &amp; Löbl, 1997
-Megarthrus vanschuytbroecki Cuccodoro &amp; Löbl, 1995[5]
-Megarthrus watutsi Cuccodoro &amp; Löbl, 1995[5]
+Megarthrus vanschuytbroecki Cuccodoro &amp; Löbl, 1995
+Megarthrus watutsi Cuccodoro &amp; Löbl, 1995
 Megarthrus wollastoni Cuccodoro &amp; Löbl, 1997
 Megarthrus wujing Liu &amp; Cuccodoro, 2021
 Megarthrus wukong Liu &amp; Cuccodoro, 2021
 Megarthrus yeti Cuccodoro, 2003
 Megarthrus zekorum Cuccodoro &amp; Löbl, 1997
 Megarthrus zerchei Cuccodoro &amp; Löbl, 1997
-Megarthrus zulu Cuccodoro &amp; Löbl, 1995[5]
-Morana afflictrix Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana agostii Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana ampullaria Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana asema Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana belajevae Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana bellicosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana bidentata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana brinevi Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana burckhardti Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana caudata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana clypeata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana crustosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana derosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana diatretaria Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana distensiceps Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana dorsuosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana epastifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana eromenion Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana fastigata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana femoralis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana galeata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana hastulata Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana histanoceroides Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Megarthrus zulu Cuccodoro &amp; Löbl, 1995
+Morana afflictrix Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana agostii Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana ampullaria Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana asema Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana belajevae Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana bellicosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana bidentata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana brinevi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana burckhardti Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana caudata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana clypeata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana crustosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana derosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana diatretaria Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana distensiceps Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana dorsuosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana epastifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana eromenion Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana fastigata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana femoralis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana galeata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana hastulata Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana histanoceroides Kurbatov, Cuccodoro &amp; Löbl, 2007
 Morana hoplomacha Löbl, Kurbatov &amp; Cuccodoro, 2007
-Morana loquax Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana lucipeta Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana lupula Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana lusciosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana machaerifera Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana mahadewa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana minax Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana murphyi Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana nana Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana obbatifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana oxymoron Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana palaung Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana palpalis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana palulifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana papulifera Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana pectinicornis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana perreaui Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana persolla Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana petulca Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana platypes Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana rebellis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana repandirostra Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana sagax Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana scapus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana semifacta Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana sima Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana sinciput Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana smetanai Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana sycosifrons Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana tibialis Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana virago Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Morana vultuosa Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Multesimus cuniculus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Multesimus gallulus Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Morana loquax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lucipeta Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lupula Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana lusciosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana machaerifera Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana mahadewa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana minax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana murphyi Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana nana Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana obbatifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana oxymoron Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palaung Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palpalis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana palulifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana papulifera Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana pectinicornis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana perreaui Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana persolla Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana petulca Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana platypes Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana rebellis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana repandirostra Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sagax Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana scapus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana semifacta Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sima Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sinciput Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana smetanai Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana sycosifrons Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana tibialis Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana virago Kurbatov, Cuccodoro &amp; Löbl, 2007
+Morana vultuosa Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus cuniculus Kurbatov, Cuccodoro &amp; Löbl, 2007
+Multesimus gallulus Kurbatov, Cuccodoro &amp; Löbl, 2007
 Multesimus jaccoudi Löbl, Kurbatov &amp; Cuccodoro, 2007
-Multesimus talpula Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Nippiliphus crurifragius Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
-Nippiliphus napolovi Kurbatov, Cuccodoro &amp; Löbl, 2007[1]
+Multesimus talpula Kurbatov, Cuccodoro &amp; Löbl, 2007
+Nippiliphus crurifragius Kurbatov, Cuccodoro &amp; Löbl, 2007
+Nippiliphus napolovi Kurbatov, Cuccodoro &amp; Löbl, 2007
 Oberea pseudoformosana Li, Cuccodoro &amp; Chen, 2014
 Ochicanthon besucheti Cuccodoro, 2011
 Ochicanthon ceylonicus Cuccodoro, 2011
@@ -821,6 +837,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
